--- a/files/result (44).xlsx
+++ b/files/result (44).xlsx
@@ -11,30 +11,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>idMainProduct</t>
-  </si>
-  <si>
-    <t>name YM</t>
-  </si>
-  <si>
-    <t>name Ozon</t>
-  </si>
-  <si>
-    <t>1C code</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>YMId</t>
+  </si>
+  <si>
+    <t>YMName</t>
+  </si>
+  <si>
+    <t>OzonId</t>
+  </si>
+  <si>
+    <t>OzonName</t>
+  </si>
+  <si>
+    <t>1CId</t>
+  </si>
+  <si>
+    <t>1CName</t>
+  </si>
+  <si>
+    <t>1CPrice</t>
+  </si>
+  <si>
+    <t>markupId</t>
   </si>
   <si>
     <t>markup</t>
   </si>
   <si>
+    <t>providerName</t>
+  </si>
+  <si>
+    <t>providerProductName</t>
+  </si>
+  <si>
+    <t>providerProductprice</t>
+  </si>
+  <si>
+    <t>newPrice</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>УТ000009872</t>
+  </si>
+  <si>
     <t>Светильник ELVAN встраиваемый,круглый,со стеклом,LED,15W 4000К</t>
   </si>
   <si>
+    <t>51428810</t>
+  </si>
+  <si>
+    <t>Светильник ELVAN квадратный LED, 6W 6000К</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>УТ000006113</t>
+  </si>
+  <si>
     <t>Светильник светодиодный встраиваемый 6W 4200К Белый HL684LG</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>УТ000006124</t>
+  </si>
+  <si>
     <t>Удлинитель СТАНДАРТ 3 гн 5м ПВС 2*0,75 б/з 3шт</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>51428811</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>51428812</t>
+  </si>
+  <si>
+    <t>Удлинитель СТАНДАРТ 3 гн 10м ПВС 2*0,75 б/з</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Поставщик Ост база</t>
+  </si>
+  <si>
+    <t>Лампа 50Вт Е27 6500К 210х125мм 300 градусов светодиодная для садово-парковых светильников /30/</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Уютель D0101 UTLED Blue T40-10X3528ES-105Lm-1W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Уютель D0201 UTLED Blue B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
   </si>
 </sst>
 </file>
@@ -411,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:N9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,29 +517,153 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/files/result (44).xlsx
+++ b/files/result (44).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,12 @@
     <t>Светильник ELVAN квадратный LED, 6W 6000К</t>
   </si>
   <si>
+    <t>Поставщик Ост база</t>
+  </si>
+  <si>
+    <t>Уютель D0101 UTLED Blue T40-10X3528ES-105Lm-1W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>Светильник светодиодный встраиваемый 6W 4200К Белый HL684LG</t>
   </si>
   <si>
+    <t>Лампа 50Вт Е27 6500К 210х125мм 300 градусов светодиодная для садово-парковых светильников /30/</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>Удлинитель СТАНДАРТ 3 гн 5м ПВС 2*0,75 б/з 3шт</t>
   </si>
   <si>
+    <t>Уютель D0201 UTLED Blue B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -103,25 +115,28 @@
     <t>Удлинитель СТАНДАРТ 3 гн 10м ПВС 2*0,75 б/з</t>
   </si>
   <si>
+    <t>Уютель лампа светодиодная D0325 UTLED Green P45-5X2835SMD-3W-E27 /200/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>Поставщик Ост база</t>
-  </si>
-  <si>
-    <t>Лампа 50Вт Е27 6500К 210х125мм 300 градусов светодиодная для садово-парковых светильников /30/</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>Уютель D0101 UTLED Blue T40-10X3528ES-105Lm-1W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>Уютель D0201 UTLED Blue B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Уютель D0201 UTLED Red B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Уютель D0201 UTLED Green B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
   </si>
 </sst>
 </file>
@@ -498,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -567,102 +582,181 @@
       <c r="J2">
         <v>1.2</v>
       </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>222</v>
+      </c>
+      <c r="N2">
+        <v>266</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
       <c r="J3">
         <v>1.5</v>
       </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>222</v>
+      </c>
+      <c r="N3">
+        <v>333</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>1.6</v>
       </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>222</v>
+      </c>
+      <c r="N4">
+        <v>355</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>1.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6">
+        <v>222</v>
+      </c>
+      <c r="N6">
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7">
-        <v>222</v>
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8">
-        <v>222</v>
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11">
         <v>222</v>
       </c>
     </row>

--- a/files/result (44).xlsx
+++ b/files/result (44).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -58,85 +58,271 @@
     <t>9</t>
   </si>
   <si>
+    <t>УТ000006124</t>
+  </si>
+  <si>
+    <t>Удлинитель СТАНДАРТ 3 гн 5м ПВС 2*0,75 б/з 3шт</t>
+  </si>
+  <si>
+    <t>Поставщик Ост база</t>
+  </si>
+  <si>
+    <t>Уютель D0101 UTLED Blue T40-10X3528ES-105Lm-1W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>УТ000006113</t>
+  </si>
+  <si>
+    <t>Светильник светодиодный встраиваемый 6W 4200К Белый HL684LG</t>
+  </si>
+  <si>
+    <t>51428810</t>
+  </si>
+  <si>
+    <t>Светильник ELVAN квадратный LED, 6W 6000К</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>УТ000006718</t>
+  </si>
+  <si>
+    <t>Светильник светодиодный лестничный 1*3W 4000К Матхром IP 20 HL957L</t>
+  </si>
+  <si>
+    <t>Уютель D0201 UTLED Blue B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>УТ000009831</t>
+  </si>
+  <si>
+    <t>Светильник ELVAN квадратный LED, 18W 3000К</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Уютель лампа светодиодная D0325 UTLED Green P45-5X2835SMD-3W-E27 /200/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Уютель D0201 UTLED Green B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>УТ000009872</t>
   </si>
   <si>
     <t>Светильник ELVAN встраиваемый,круглый,со стеклом,LED,15W 4000К</t>
   </si>
   <si>
-    <t>51428810</t>
-  </si>
-  <si>
-    <t>Светильник ELVAN квадратный LED, 6W 6000К</t>
-  </si>
-  <si>
-    <t>Поставщик Ост база</t>
-  </si>
-  <si>
-    <t>Уютель D0101 UTLED Blue T40-10X3528ES-105Lm-1W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>УТ000006113</t>
-  </si>
-  <si>
-    <t>Светильник светодиодный встраиваемый 6W 4200К Белый HL684LG</t>
-  </si>
-  <si>
-    <t>Лампа 50Вт Е27 6500К 210х125мм 300 градусов светодиодная для садово-парковых светильников /30/</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>УТ000006124</t>
-  </si>
-  <si>
-    <t>Удлинитель СТАНДАРТ 3 гн 5м ПВС 2*0,75 б/з 3шт</t>
-  </si>
-  <si>
-    <t>Уютель D0201 UTLED Blue B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>Уютель D0502 UTLED A55-22X2835ES-550Lm-5W-E27-3300K Econom, пластик, алюминий, лампа светодиодная/200/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>УТ000006128</t>
+  </si>
+  <si>
+    <t>Удлинитель СТАНДАРТ 3 гн 10м ПВС 2*0,75 б/з</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Уютель D0201 UTLED Red B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>51428811</t>
   </si>
   <si>
-    <t>13</t>
+    <t>61</t>
   </si>
   <si>
     <t>51428812</t>
   </si>
   <si>
-    <t>Удлинитель СТАНДАРТ 3 гн 10м ПВС 2*0,75 б/з</t>
-  </si>
-  <si>
-    <t>Уютель лампа светодиодная D0325 UTLED Green P45-5X2835SMD-3W-E27 /200/, код ТН ВЭД 8543709000</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Уютель D0201 UTLED Red B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Уютель D0201 UTLED Green B45-10X3528ES-210Lm-2W-E27, пластик, лампа светодиодная/100/, код ТН ВЭД 8543709000</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>УТ000009838</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
   </si>
 </sst>
 </file>
@@ -513,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N67"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -570,12 +756,6 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
@@ -583,10 +763,10 @@
         <v>1.2</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>222</v>
@@ -597,54 +777,54 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>1.5</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3">
-        <v>222</v>
-      </c>
-      <c r="N3">
-        <v>333</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>1.6</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4">
         <v>222</v>
@@ -655,16 +835,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>1.2</v>
@@ -674,12 +854,6 @@
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
@@ -687,10 +861,10 @@
         <v>1.5</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M6">
         <v>222</v>
@@ -701,10 +875,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J7">
         <v>1.6</v>
@@ -712,10 +886,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>1.2</v>
@@ -723,10 +897,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9">
         <v>1.2</v>
@@ -734,30 +908,439 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10">
-        <v>222</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M11">
         <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/files/result (44).xlsx
+++ b/files/result (44).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>idMainProduct</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>Светильник ELVAN встраиваемый,круглый,со стеклом,LED,15W 4000К</t>
+  </si>
+  <si>
+    <t>УТ000011254</t>
+  </si>
+  <si>
+    <t>УТ000013256</t>
+  </si>
+  <si>
+    <t>УТ000016646</t>
+  </si>
+  <si>
+    <t>УТ000016762</t>
+  </si>
+  <si>
+    <t>УТ000016647</t>
+  </si>
+  <si>
+    <t>УТ000016650</t>
   </si>
 </sst>
 </file>
@@ -423,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -450,6 +468,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="E2">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -458,6 +479,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="E3">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -466,6 +490,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="E4">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -474,6 +501,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -482,6 +512,9 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="E6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -490,6 +523,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -497,6 +533,65 @@
       </c>
       <c r="B8" t="s">
         <v>11</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
